--- a/medicine/Pharmacie/Charles_Louis_Cadet_de_Gassicourt/Charles_Louis_Cadet_de_Gassicourt.xlsx
+++ b/medicine/Pharmacie/Charles_Louis_Cadet_de_Gassicourt/Charles_Louis_Cadet_de_Gassicourt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles-Louis Cadet de Gassicourt, né le 23 janvier 1769 à Paris où il est mort le 21 novembre 1821, est un pharmacien, écrivain et goguettier français, fils réputé illégitime de Louis XV[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles-Louis Cadet de Gassicourt, né le 23 janvier 1769 à Paris où il est mort le 21 novembre 1821, est un pharmacien, écrivain et goguettier français, fils réputé illégitime de Louis XV.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Officiellement, il est le fils de Louis Claude Cadet de Gassicourt et de Françoise Boisselet. Cependant, dans ses Mémoires, son ami le baron Thiébault révèle comment sa mère céda aux avances du roi Louis XV et qu'elle tomba ainsi enceinte du roi de France. Il y précise aussi comment le mari cocu décida de faire des adieux définitifs à sa femme, et comment le roi tenta de le calmer en le nommant membre de l'Académie des sciences et en lui offrant des biens de grande valeur[2]. Mais le mari trompé resta inflexible.
-Cette paternité de Louis XV est aujourd'hui affirmée par de nombreux auteurs[3],[1],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Officiellement, il est le fils de Louis Claude Cadet de Gassicourt et de Françoise Boisselet. Cependant, dans ses Mémoires, son ami le baron Thiébault révèle comment sa mère céda aux avances du roi Louis XV et qu'elle tomba ainsi enceinte du roi de France. Il y précise aussi comment le mari cocu décida de faire des adieux définitifs à sa femme, et comment le roi tenta de le calmer en le nommant membre de l'Académie des sciences et en lui offrant des biens de grande valeur. Mais le mari trompé resta inflexible.
+Cette paternité de Louis XV est aujourd'hui affirmée par de nombreux auteurs.
 Son père souhaite lui faire étudier la pharmacie, mais le jeune homme, qui rencontre chez ses parents des hommes de lettres tels que d'Alembert, Buffon ou Condorcet, décide de se consacrer à la littérature.
 Après de brillantes études en droit aux collèges de Navarre et Mazarin, il devient avocat. Il plaide avec éloquence et un certain succès. Le 8 janvier 1789, il épouse à Paris, Madeleine Baudet.
-Lorsque la Révolution éclate, Gassicourt y adhère avec enthousiasme et se lance en politique. Le peintre Pierre-Paul Prud'hon réalise en 1791, un portrait de lui conservé au Musée Jacquemart-André[5].
+Lorsque la Révolution éclate, Gassicourt y adhère avec enthousiasme et se lance en politique. Le peintre Pierre-Paul Prud'hon réalise en 1791, un portrait de lui conservé au Musée Jacquemart-André.
 Il n'hésite pas à condamner les excès du Tribunal révolutionnaire. Il publie des chansons patriotiques et un Cahier de réformes ou vœux d'un ami de l'ordre. Accusé d'avoir participé au 13 vendémiaire à la tête de la section du Mont-Blanc en 1795, il est condamné par contumace, ce qui l'oblige à se cacher trois ans dans le Berry. La condamnation est finalement annulée par le jury criminel de la Seine.
 La tourmente terminée, il revient à Paris. Entre-temps, son père putatif étant décédé après avoir dilapidé sa fortune, Gassicourt, déçu dans ses espérances, doit renoncer à sa vie dissipée et se décide à embrasser la profession pharmaceutique. Sa qualité de fils de maître et sa haute situation lui valent de grandes facilités pour parvenir à la maîtrise, et le 15 juin 1800, il obtient le diplôme de maître en pharmacie.
 Dès qu'il est muni de son diplôme, Gassicourt s'installe rue Saint-Honoré, presque en face de l'officine Cadet-Derosne, tenue par la veuve Derosne avec qui il est dans les plus mauvais termes. Son établissement est des plus prospères, sa notoriété est considérable. En 1802, il présente un plan de salubrité publique qui est immédiatement adopté par le préfet de police Dubois. Il est alors nommé secrétaire général du nouveau conseil de salubrité de Paris.
@@ -554,9 +568,11 @@
           <t>Thèses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans deux de ses ouvrages, il explore la thèse que des sociétés secrètes, dont la franc-maçonnerie, auraient favorisé l'avènement de la Révolution française[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans deux de ses ouvrages, il explore la thèse que des sociétés secrètes, dont la franc-maçonnerie, auraient favorisé l'avènement de la Révolution française,.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le Tombeau de Jacques de Molay, ou Histoire secrète et abrégée des initiés anciens et modernes, templiers, francs-maçons, illuminés, Paris, 1797. Lire la transcription en ligne sur la BNAM. [1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Tombeau de Jacques de Molay, ou Histoire secrète et abrégée des initiés anciens et modernes, templiers, francs-maçons, illuminés, Paris, 1797. Lire la transcription en ligne sur la BNAM. 
 Le Souper de Molière, comédie-vaudeville en un acte, Paris, 1798.
 La Visite de Racan, comédie-vaudeville en un acte, Paris, 1798.
 Mon voyage ou Lettres sur la Normandie, 1799.
@@ -628,6 +646,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
